--- a/bh3/549860834431966666_2021-07-21_18-20-52.xlsx
+++ b/bh3/549860834431966666_2021-07-21_18-20-52.xlsx
@@ -707,7 +707,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6033,7 +6033,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7427,7 +7427,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -7857,7 +7857,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -9084,7 +9084,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -9380,7 +9380,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10125,7 +10125,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -10275,11 +10275,11 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -10652,7 +10652,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11648,7 +11648,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11727,7 +11727,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -12016,7 +12016,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -12681,7 +12681,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -13046,7 +13046,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -13113,7 +13113,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -13582,7 +13582,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13946,7 +13946,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -14093,7 +14093,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -14314,7 +14314,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -14385,7 +14385,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -14533,7 +14533,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -14760,7 +14760,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -14840,7 +14840,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -15839,7 +15839,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -15918,7 +15918,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -16058,7 +16058,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -16126,7 +16126,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -16627,7 +16627,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16920,7 +16920,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -16988,7 +16988,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -17347,7 +17347,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -17481,7 +17481,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -18283,7 +18283,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -18425,7 +18425,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -18500,7 +18500,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18709,7 +18709,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18843,7 +18843,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -19530,7 +19530,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -19877,7 +19877,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -20027,7 +20027,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -20098,7 +20098,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -20165,7 +20165,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -20534,7 +20534,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -20613,7 +20613,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20692,7 +20692,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20767,7 +20767,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -21060,7 +21060,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -21419,7 +21419,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -22308,7 +22308,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -22531,7 +22531,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -23046,7 +23046,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -23704,7 +23704,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -24425,7 +24425,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -24709,7 +24709,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24990,7 +24990,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -26078,7 +26078,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -26581,7 +26581,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -26802,7 +26802,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -27046,7 +27046,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -27113,7 +27113,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -27477,7 +27477,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -27777,7 +27777,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -27928,7 +27928,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -28284,7 +28284,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -28481,7 +28481,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -28552,7 +28552,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -28698,7 +28698,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -28769,7 +28769,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -28832,7 +28832,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28978,7 +28978,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -29049,7 +29049,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -29128,7 +29128,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -29425,7 +29425,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -29504,7 +29504,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -29650,7 +29650,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -29785,7 +29785,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -29931,7 +29931,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -29998,7 +29998,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -30370,7 +30370,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -30670,7 +30670,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -30749,7 +30749,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -31114,7 +31114,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -31181,7 +31181,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -31394,7 +31394,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -31469,7 +31469,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -31773,7 +31773,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -31840,7 +31840,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -31919,7 +31919,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -31986,7 +31986,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -32132,7 +32132,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -32282,7 +32282,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -32807,7 +32807,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -32957,7 +32957,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -33254,7 +33254,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -33396,7 +33396,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -33471,7 +33471,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -33546,7 +33546,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -33617,7 +33617,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -33692,7 +33692,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -34979,7 +34979,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">

--- a/bh3/549860834431966666_2021-07-21_18-20-52.xlsx
+++ b/bh3/549860834431966666_2021-07-21_18-20-52.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4999156992</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-27 21:48:44</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44404.90884259259</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>4999156992</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-27 21:44:01</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44404.90556712963</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>4999156992</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-27 21:14:45</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44404.88524305556</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>4999156992</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-27 21:09:45</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44404.88177083333</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -843,10 +851,8 @@
           <t>4999156992</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-27 19:27:19</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44404.81063657408</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -910,10 +916,8 @@
           <t>4960362494</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-27 15:28:33</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44404.64482638889</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -977,10 +981,8 @@
           <t>4960362494</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-27 15:28:26</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44404.64474537037</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1044,10 +1046,8 @@
           <t>4999156992</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-27 00:23:12</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44404.01611111111</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1123,10 +1123,8 @@
           <t>4992203266</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-26 03:14:22</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44403.13497685185</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1191,10 +1189,8 @@
           <t>4989881513</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:48:51</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44402.86725694445</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1266,10 +1262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-23 12:51:50</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44400.53599537037</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1333,10 +1327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-23 00:50:17</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44400.03491898148</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1414,10 +1406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-22 16:16:27</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44399.67809027778</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1493,10 +1483,8 @@
           <t>4964458945</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-22 11:55:18</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44399.49673611111</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1566,10 +1554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:19:17</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44399.43005787037</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -1640,10 +1626,8 @@
           <t>4960052126</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:18:14</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44399.42932870371</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1718,10 +1702,8 @@
           <t>4962364740</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-22 10:04:53</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44399.42005787037</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1789,10 +1771,8 @@
           <t>4963534102</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-22 08:58:18</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44399.37381944444</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1868,10 +1848,8 @@
           <t>4960362494</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-22 08:56:12</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44399.37236111111</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1939,10 +1917,8 @@
           <t>4963521621</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-22 08:53:40</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44399.37060185185</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2015,10 +1991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-22 08:21:29</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44399.34825231481</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2086,10 +2060,8 @@
           <t>4963390062</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-22 08:19:17</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44399.34672453703</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2157,10 +2129,8 @@
           <t>4963329729</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-22 08:03:45</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44399.3359375</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2224,10 +2194,8 @@
           <t>4963322978</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-22 08:01:16</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44399.33421296296</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2292,10 +2260,8 @@
           <t>4963256317</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-22 07:37:48</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44399.31791666667</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2363,10 +2329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-22 06:47:25</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44399.28292824074</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2451,10 +2415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-22 06:01:39</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44399.25114583333</v>
       </c>
       <c r="I28" t="n">
         <v>9</v>
@@ -2522,10 +2484,8 @@
           <t>4962941298</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-22 03:22:10</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44399.14039351852</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2589,10 +2549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-22 02:32:26</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44399.10585648148</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2652,10 +2610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-22 02:32:01</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44399.10556712963</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2715,10 +2671,8 @@
           <t>4962844302</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-22 02:30:21</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44399.10440972223</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2778,10 +2732,8 @@
           <t>4960655282</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-22 02:28:53</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44399.1033912037</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2841,10 +2793,8 @@
           <t>4962837956</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-22 02:27:21</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44399.10232638889</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2904,10 +2854,8 @@
           <t>4960655282</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:45:48</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44399.07347222222</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2983,10 +2931,8 @@
           <t>4962688113</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:33:54</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44399.06520833333</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3062,10 +3008,8 @@
           <t>4960655282</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:24:09</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44399.0584375</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3141,10 +3085,8 @@
           <t>4960655282</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:11:52</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44399.04990740741</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3220,10 +3162,8 @@
           <t>4960429012</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-22 01:05:11</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44399.04526620371</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3302,10 +3242,8 @@
           <t>4962530300</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:53:44</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44399.03731481481</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3369,10 +3307,8 @@
           <t>4962335907</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:44:55</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44399.03119212963</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3440,10 +3376,8 @@
           <t>4960655282</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:31:15</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44399.02170138889</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3511,10 +3445,8 @@
           <t>4960655282</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:30:44</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44399.02134259259</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3582,10 +3514,8 @@
           <t>4962364740</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:23:08</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44399.01606481482</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
@@ -3653,10 +3583,8 @@
           <t>4962335907</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:16:18</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44399.01131944444</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3724,10 +3652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:08:05</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44399.00561342593</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3795,10 +3721,8 @@
           <t>4962247038</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:02:52</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44399.00199074074</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3862,10 +3786,8 @@
           <t>4962165855</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:50:47</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44398.99359953704</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3941,10 +3863,8 @@
           <t>4959978136</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:49:31</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44398.99271990741</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4016,10 +3936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:47:22</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44398.99122685185</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4092,10 +4010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:45:58</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44398.99025462963</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4168,10 +4084,8 @@
           <t>4962098626</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:41:25</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44398.98709490741</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4247,10 +4161,8 @@
           <t>4962091177</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:40:11</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44398.98623842592</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4326,10 +4238,8 @@
           <t>4962083775</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:39:23</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44398.98568287037</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4405,10 +4315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:29:27</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44398.97878472223</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4472,10 +4380,8 @@
           <t>4961987406</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:26:18</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44398.97659722222</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4547,10 +4453,8 @@
           <t>4961983139</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:25:39</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44398.97614583333</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4622,10 +4526,8 @@
           <t>4961870747</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:10:44</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44398.96578703704</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4695,10 +4597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:45:34</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44398.94831018519</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4758,10 +4658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:43:39</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44398.94697916666</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4837,10 +4735,8 @@
           <t>4960081764</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:40:52</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44398.9450462963</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4908,10 +4804,8 @@
           <t>4961522300</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:27:31</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44398.93577546296</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4988,10 +4882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:26:51</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44398.9353125</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -5063,10 +4955,8 @@
           <t>4961502674</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:25:00</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44398.93402777778</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5142,10 +5032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:24:20</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44398.93356481481</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5213,10 +5101,8 @@
           <t>4960190142</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:22:38</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44398.93238425926</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5290,10 +5176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:20:50</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44398.93113425926</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
@@ -5364,10 +5248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:20:44</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44398.93106481482</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5431,10 +5313,8 @@
           <t>4961455599</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:18:43</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44398.92966435185</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5502,10 +5382,8 @@
           <t>4961345057</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:04:40</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44398.91990740741</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5578,10 +5456,8 @@
           <t>4961303809</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:00:29</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44398.91700231482</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -5645,10 +5521,8 @@
           <t>4961207381</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:46:45</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44398.90746527778</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5717,10 +5591,8 @@
           <t>4961174509</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:43:20</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44398.90509259259</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5793,10 +5665,8 @@
           <t>4961152429</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:39:45</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44398.90260416667</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5872,10 +5742,8 @@
           <t>4959857678</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:33:43</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44398.89841435185</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5944,10 +5812,8 @@
           <t>4959857678</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:32:52</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44398.89782407408</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6023,10 +5889,8 @@
           <t>4960655282</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:31:01</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44398.89653935185</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6103,10 +5967,8 @@
           <t>4960655282</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:30:03</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44398.89586805556</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -6182,10 +6044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:24:54</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44398.89229166666</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6253,10 +6113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:22:22</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44398.89053240741</v>
       </c>
       <c r="I80" t="n">
         <v>2</v>
@@ -6328,10 +6186,8 @@
           <t>4960052126</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:16:46</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44398.88664351852</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6403,10 +6259,8 @@
           <t>4960966439</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:14:27</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44398.88503472223</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6482,10 +6336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:08:16</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44398.88074074074</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
@@ -6549,10 +6401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:01:58</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44398.87636574074</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6624,10 +6474,8 @@
           <t>4960429012</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:01:14</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44398.87585648148</v>
       </c>
       <c r="I85" t="n">
         <v>18</v>
@@ -6695,10 +6543,8 @@
           <t>4959973063</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:57:58</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44398.87358796296</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6770,10 +6616,8 @@
           <t>4960837338</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:56:55</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44398.8728587963</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -6841,10 +6685,8 @@
           <t>4960832040</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:56:28</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44398.8725462963</v>
       </c>
       <c r="I88" t="n">
         <v>4</v>
@@ -6920,10 +6762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:52:12</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44398.86958333333</v>
       </c>
       <c r="I89" t="n">
         <v>3</v>
@@ -6987,10 +6827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:48:39</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44398.86711805555</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7058,10 +6896,8 @@
           <t>4960443528</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:47:52</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44398.86657407408</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7129,10 +6965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:45:16</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44398.86476851852</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7208,10 +7042,8 @@
           <t>4960671376</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:38:00</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44398.85972222222</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7279,10 +7111,8 @@
           <t>4960655282</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:35:11</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44398.85776620371</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
@@ -7350,10 +7180,8 @@
           <t>4960671376</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:34:31</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44398.85730324074</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7417,10 +7245,8 @@
           <t>4960655282</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:32:02</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44398.8555787037</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7488,10 +7314,8 @@
           <t>4960491110</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:19:28</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44398.84685185185</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7567,10 +7391,8 @@
           <t>4960553689</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:19:04</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44398.84657407407</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7638,10 +7460,8 @@
           <t>4960544994</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:18:00</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44398.84583333333</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7717,10 +7537,8 @@
           <t>4960524925</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:15:28</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44398.84407407408</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7788,10 +7606,8 @@
           <t>4960491110</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:12:36</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44398.84208333334</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7864,10 +7680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:11:42</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44398.84145833334</v>
       </c>
       <c r="I102" t="n">
         <v>25</v>
@@ -7939,10 +7753,8 @@
           <t>4960491110</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:09:33</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44398.83996527778</v>
       </c>
       <c r="I103" t="n">
         <v>3</v>
@@ -8018,10 +7830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:07:35</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44398.83859953703</v>
       </c>
       <c r="I104" t="n">
         <v>6</v>
@@ -8089,10 +7899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:05:07</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44398.83688657408</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8160,10 +7968,8 @@
           <t>4960443528</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:03:37</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44398.83584490741</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8231,10 +8037,8 @@
           <t>4960441371</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:02:45</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44398.83524305555</v>
       </c>
       <c r="I107" t="n">
         <v>2</v>
@@ -8310,10 +8114,8 @@
           <t>4960429012</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:01:56</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44398.83467592593</v>
       </c>
       <c r="I108" t="n">
         <v>10</v>
@@ -8389,10 +8191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:00:43</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44398.83383101852</v>
       </c>
       <c r="I109" t="n">
         <v>2</v>
@@ -8460,10 +8260,8 @@
           <t>4959883081</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:00:02</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44398.83335648148</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8539,10 +8337,8 @@
           <t>4960144355</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:59:47</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44398.83318287037</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8618,10 +8414,8 @@
           <t>4960183254</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:57:52</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44398.83185185185</v>
       </c>
       <c r="I112" t="n">
         <v>5</v>
@@ -8697,10 +8491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:56:09</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44398.83065972223</v>
       </c>
       <c r="I113" t="n">
         <v>26</v>
@@ -8768,10 +8560,8 @@
           <t>4960363073</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:55:20</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44398.83009259259</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8835,10 +8625,8 @@
           <t>4960159704</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:55:07</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44398.82994212963</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8914,10 +8702,8 @@
           <t>4960052126</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:55:04</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44398.82990740741</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8994,10 +8780,8 @@
           <t>4960362494</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:54:23</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44398.82943287037</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9074,10 +8858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:52:35</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44398.82818287037</v>
       </c>
       <c r="I118" t="n">
         <v>7</v>
@@ -9153,10 +8935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:52:21</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44398.82802083333</v>
       </c>
       <c r="I119" t="n">
         <v>3</v>
@@ -9228,10 +9008,8 @@
           <t>4960052126</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:52:16</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44398.82796296296</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9299,10 +9077,8 @@
           <t>4960363073</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:51:54</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44398.82770833333</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9370,10 +9146,8 @@
           <t>4960362494</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:51:40</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44398.8275462963</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9437,10 +9211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:50:01</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44398.82640046296</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9520,10 +9292,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:49:30</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44398.82604166667</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9600,10 +9370,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:47:41</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44398.82478009259</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9667,10 +9435,8 @@
           <t>4960292291</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:47:26</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44398.82460648148</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9747,10 +9513,8 @@
           <t>4960327760</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:47:18</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44398.82451388889</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9822,10 +9586,8 @@
           <t>4960322925</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:45:47</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44398.82346064815</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9898,10 +9660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:45:23</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44398.82318287037</v>
       </c>
       <c r="I129" t="n">
         <v>5</v>
@@ -9965,10 +9725,8 @@
           <t>4960292291</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:45:01</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44398.82292824074</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -10036,10 +9794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:44:32</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44398.82259259259</v>
       </c>
       <c r="I131" t="n">
         <v>14</v>
@@ -10115,10 +9871,8 @@
           <t>4960273111</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:43:55</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44398.82216435186</v>
       </c>
       <c r="I132" t="n">
         <v>2</v>
@@ -10195,10 +9949,8 @@
           <t>4960307187</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:43:30</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44398.821875</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10269,10 +10021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:43:28</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44398.82185185186</v>
       </c>
       <c r="I134" t="n">
         <v>450</v>
@@ -10344,10 +10094,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:42:25</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44398.82112268519</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10424,10 +10172,8 @@
           <t>4960288995</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:41:50</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44398.82071759259</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10495,10 +10241,8 @@
           <t>4960292291</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:41:32</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44398.82050925926</v>
       </c>
       <c r="I137" t="n">
         <v>2</v>
@@ -10575,10 +10319,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:41:07</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44398.82021990741</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10642,10 +10384,8 @@
           <t>4960052126</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:40:51</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44398.82003472222</v>
       </c>
       <c r="I139" t="n">
         <v>3</v>
@@ -10713,10 +10453,8 @@
           <t>4960144355</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:39:59</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44398.81943287037</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10780,10 +10518,8 @@
           <t>4960273111</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:39:25</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44398.81903935185</v>
       </c>
       <c r="I141" t="n">
         <v>2</v>
@@ -10851,10 +10587,8 @@
           <t>4960267564</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:38:51</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44398.81864583334</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10926,10 +10660,8 @@
           <t>4960271497</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:38:44</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44398.81856481481</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10993,10 +10725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:38:28</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44398.81837962963</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11068,10 +10798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:37:32</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44398.81773148148</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11131,10 +10859,8 @@
           <t>4960144355</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:37:23</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44398.81762731481</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11210,10 +10936,8 @@
           <t>4960252449</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:36:32</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44398.81703703704</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11273,10 +10997,8 @@
           <t>4959898312</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:36:28</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44398.81699074074</v>
       </c>
       <c r="I148" t="n">
         <v>2</v>
@@ -11348,10 +11070,8 @@
           <t>4960144355</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:34:20</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44398.81550925926</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11415,10 +11135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:33:43</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44398.81508101852</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11482,10 +11200,8 @@
           <t>4960052126</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:33:23</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44398.81484953704</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11563,10 +11279,8 @@
           <t>4959898312</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:33:03</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44398.81461805556</v>
       </c>
       <c r="I152" t="n">
         <v>2</v>
@@ -11638,10 +11352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:32:28</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44398.81421296296</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11717,10 +11429,8 @@
           <t>4960052126</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:32:18</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44398.81409722222</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11788,10 +11498,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:32:18</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44398.81409722222</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11868,10 +11576,8 @@
           <t>4960144355</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:31:51</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44398.81378472222</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11935,10 +11641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:31:49</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44398.81376157407</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12006,10 +11710,8 @@
           <t>4960052126</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:31:28</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44398.81351851852</v>
       </c>
       <c r="I158" t="n">
         <v>3</v>
@@ -12077,10 +11779,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:31:20</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44398.81342592592</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12157,10 +11857,8 @@
           <t>4960144355</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:30:34</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44398.81289351852</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12236,10 +11934,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:29:59</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44398.81248842592</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12303,10 +11999,8 @@
           <t>4960059125</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:29:52</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44398.81240740741</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12371,10 +12065,8 @@
           <t>4960197732</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:29:09</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44398.81190972222</v>
       </c>
       <c r="I163" t="n">
         <v>14</v>
@@ -12450,10 +12142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:28:50</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44398.81168981481</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12521,10 +12211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:28:46</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44398.81164351852</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12596,10 +12284,8 @@
           <t>4960196104</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:28:29</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44398.81144675926</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12671,10 +12357,8 @@
           <t>4960190142</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:28:03</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44398.81114583334</v>
       </c>
       <c r="I167" t="n">
         <v>7</v>
@@ -12750,10 +12434,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:27:55</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44398.81105324074</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12817,10 +12499,8 @@
           <t>4960052126</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:27:54</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44398.81104166667</v>
       </c>
       <c r="I169" t="n">
         <v>3</v>
@@ -12889,10 +12569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:27:42</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44398.81090277778</v>
       </c>
       <c r="I170" t="n">
         <v>16</v>
@@ -12965,10 +12643,8 @@
           <t>4960183254</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:27:20</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44398.81064814814</v>
       </c>
       <c r="I171" t="n">
         <v>6</v>
@@ -13036,10 +12712,8 @@
           <t>4960190142</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:26:35</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44398.81012731481</v>
       </c>
       <c r="I172" t="n">
         <v>2</v>
@@ -13103,10 +12777,8 @@
           <t>4960052126</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:26:34</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44398.81011574074</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13183,10 +12855,8 @@
           <t>4960144355</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:26:22</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44398.80997685185</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13262,10 +12932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:25:59</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44398.80971064815</v>
       </c>
       <c r="I175" t="n">
         <v>2</v>
@@ -13341,10 +13009,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:25:17</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44398.80922453704</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13421,10 +13087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:25:09</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44398.80913194444</v>
       </c>
       <c r="I177" t="n">
         <v>2</v>
@@ -13501,10 +13165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:25:08</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44398.80912037037</v>
       </c>
       <c r="I178" t="n">
         <v>2</v>
@@ -13572,10 +13234,8 @@
           <t>4960037658</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:25:06</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44398.80909722222</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13643,10 +13303,8 @@
           <t>4960165863</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:24:24</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44398.80861111111</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13710,10 +13368,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:24:15</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44398.80850694444</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13790,10 +13446,8 @@
           <t>4960159704</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:24:11</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44398.80846064815</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13869,10 +13523,8 @@
           <t>4960144355</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:24:05</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44398.8083912037</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13936,10 +13588,8 @@
           <t>4960052126</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:23:22</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44398.80789351852</v>
       </c>
       <c r="I184" t="n">
         <v>2</v>
@@ -14007,10 +13657,8 @@
           <t>4960157228</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:23:05</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44398.80769675926</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14083,10 +13731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:22:59</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44398.80762731482</v>
       </c>
       <c r="I186" t="n">
         <v>5</v>
@@ -14162,10 +13808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:22:37</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44398.80737268519</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14237,10 +13881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:22:35</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44398.80734953703</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14304,10 +13946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:22:24</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44398.80722222223</v>
       </c>
       <c r="I189" t="n">
         <v>2</v>
@@ -14375,10 +14015,8 @@
           <t>4959989040</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:22:05</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44398.80700231482</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14455,10 +14093,8 @@
           <t>4959857678</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:22:04</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44398.80699074074</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14523,10 +14159,8 @@
           <t>4960144650</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:21:54</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44398.806875</v>
       </c>
       <c r="I192" t="n">
         <v>9</v>
@@ -14600,10 +14234,8 @@
           <t>4960144355</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:21:48</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44398.80680555556</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14679,10 +14311,8 @@
           <t>4960148519</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:21:38</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44398.80668981482</v>
       </c>
       <c r="I194" t="n">
         <v>2</v>
@@ -14750,10 +14380,8 @@
           <t>4960052126</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:21:20</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44398.80648148148</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14830,10 +14458,8 @@
           <t>4959883081</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:21:20</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44398.80648148148</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14901,10 +14527,8 @@
           <t>4960145599</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:20:26</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44398.80585648148</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14973,10 +14597,8 @@
           <t>4959989040</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:20:12</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44398.80569444445</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -15053,10 +14675,8 @@
           <t>4960037688</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:19:22</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44398.80511574074</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -15124,10 +14744,8 @@
           <t>4960133022</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:19:22</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44398.80511574074</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15203,10 +14821,8 @@
           <t>4959874863</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:19:20</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44398.80509259259</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15278,10 +14894,8 @@
           <t>4960112858</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:19:17</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44398.80505787037</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15345,10 +14959,8 @@
           <t>4959857678</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:19:16</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44398.80504629629</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15416,10 +15028,8 @@
           <t>4960033123</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:19:07</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44398.80494212963</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15484,10 +15094,8 @@
           <t>4960099029</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:18:44</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44398.80467592592</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15551,10 +15159,8 @@
           <t>4960130904</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:18:33</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44398.80454861111</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15623,10 +15229,8 @@
           <t>4960037688</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:18:33</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44398.80454861111</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15695,10 +15299,8 @@
           <t>4960037688</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:18:30</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44398.80451388889</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15762,10 +15364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:18:16</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44398.80435185185</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15829,10 +15429,8 @@
           <t>4960052126</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:18:05</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44398.80422453704</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15908,10 +15506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:17:35</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44398.80387731481</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15976,10 +15572,8 @@
           <t>4960112858</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:17:12</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44398.80361111111</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -16048,10 +15642,8 @@
           <t>4959989040</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:16:52</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44398.80337962963</v>
       </c>
       <c r="I213" t="n">
         <v>2</v>
@@ -16116,10 +15708,8 @@
           <t>4960037658</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:16:30</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44398.803125</v>
       </c>
       <c r="I214" t="n">
         <v>3</v>
@@ -16187,10 +15777,8 @@
           <t>4960104885</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:16:09</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44398.80288194444</v>
       </c>
       <c r="I215" t="n">
         <v>2</v>
@@ -16266,10 +15854,8 @@
           <t>4959898312</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:16:05</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44398.80283564814</v>
       </c>
       <c r="I216" t="n">
         <v>2</v>
@@ -16333,10 +15919,8 @@
           <t>4959874863</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:15:55</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44398.80271990741</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16400,10 +15984,8 @@
           <t>4960099029</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:15:43</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44398.80258101852</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16467,10 +16049,8 @@
           <t>4959874863</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:15:02</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44398.80210648148</v>
       </c>
       <c r="I219" t="n">
         <v>5</v>
@@ -16542,10 +16122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:14:52</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44398.80199074074</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16617,10 +16195,8 @@
           <t>4960089839</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:14:05</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44398.80144675926</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16696,10 +16272,8 @@
           <t>4959857678</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:13:56</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44398.80134259259</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16764,10 +16338,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:13:17</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44398.8008912037</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16831,10 +16403,8 @@
           <t>4960007419</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:12:57</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44398.80065972222</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16910,10 +16480,8 @@
           <t>4960081764</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:12:51</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44398.80059027778</v>
       </c>
       <c r="I225" t="n">
         <v>18</v>
@@ -16978,10 +16546,8 @@
           <t>4960086537</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:12:46</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44398.8005324074</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -17045,10 +16611,8 @@
           <t>4960086083</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:12:35</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44398.8004050926</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17116,10 +16680,8 @@
           <t>4960037688</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:12:24</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44398.80027777778</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17187,10 +16749,8 @@
           <t>4960085466</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:12:21</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44398.80024305556</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17266,10 +16826,8 @@
           <t>4960059125</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:12:07</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44398.80008101852</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17337,10 +16895,8 @@
           <t>4960069042</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:11:46</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44398.79983796296</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17400,10 +16956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:11:46</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44398.79983796296</v>
       </c>
       <c r="I232" t="n">
         <v>2</v>
@@ -17471,10 +17025,8 @@
           <t>4959939986</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:11:30</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44398.79965277778</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17546,10 +17098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:11:24</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44398.79958333333</v>
       </c>
       <c r="I234" t="n">
         <v>8</v>
@@ -17618,10 +17168,8 @@
           <t>4960033123</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:11:21</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44398.79954861111</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17697,10 +17245,8 @@
           <t>4960004792</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:10:44</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44398.79912037037</v>
       </c>
       <c r="I236" t="n">
         <v>7</v>
@@ -17768,10 +17314,8 @@
           <t>4960037688</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:10:39</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44398.7990625</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17843,10 +17387,8 @@
           <t>4959973063</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:10:34</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44398.79900462963</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17914,10 +17456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:10:02</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44398.79863425926</v>
       </c>
       <c r="I239" t="n">
         <v>2</v>
@@ -17985,10 +17525,8 @@
           <t>4960059125</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:09:56</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44398.79856481482</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -18048,10 +17586,8 @@
           <t>4959973063</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:09:42</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44398.79840277778</v>
       </c>
       <c r="I241" t="n">
         <v>6</v>
@@ -18119,10 +17655,8 @@
           <t>4960057993</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:09:30</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44398.79826388889</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18198,10 +17732,8 @@
           <t>4959962237</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:09:10</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44398.79803240741</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18273,10 +17805,8 @@
           <t>4960052126</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:09:02</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44398.79793981482</v>
       </c>
       <c r="I244" t="n">
         <v>2</v>
@@ -18344,10 +17874,8 @@
           <t>4960056337</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:08:53</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44398.79783564815</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18415,10 +17943,8 @@
           <t>4959989040</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:08:49</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44398.79778935185</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18490,10 +18016,8 @@
           <t>4959939601</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:08:27</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44398.79753472222</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18553,10 +18077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:08:10</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44398.79733796296</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18624,10 +18146,8 @@
           <t>4960013614</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:08:00</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44398.79722222222</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18699,10 +18219,8 @@
           <t>4960042446</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:07:21</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44398.79677083333</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18762,10 +18280,8 @@
           <t>4960037688</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:07:19</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44398.79674768518</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18833,10 +18349,8 @@
           <t>4960037658</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:07:18</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44398.79673611111</v>
       </c>
       <c r="I252" t="n">
         <v>2</v>
@@ -18904,10 +18418,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:07:10</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44398.79664351852</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18971,10 +18483,8 @@
           <t>4960009377</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:06:49</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44398.79640046296</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19038,10 +18548,8 @@
           <t>4960024730</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:06:06</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44398.79590277778</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19105,10 +18613,8 @@
           <t>4960033123</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:05:50</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44398.79571759259</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19173,10 +18679,8 @@
           <t>4960007419</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:05:43</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44398.79563657408</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19240,10 +18744,8 @@
           <t>4959962237</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:05:39</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44398.79559027778</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19319,10 +18821,8 @@
           <t>4960014864</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:04:13</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44398.79459490741</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19382,10 +18882,8 @@
           <t>4960009377</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:04:12</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44398.79458333334</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19449,10 +18947,8 @@
           <t>4959864615</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:04:04</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44398.79449074074</v>
       </c>
       <c r="I261" t="n">
         <v>3</v>
@@ -19520,10 +19016,8 @@
           <t>4960018725</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:03:57</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44398.79440972222</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19591,10 +19085,8 @@
           <t>4959869855</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:03:56</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44398.79439814815</v>
       </c>
       <c r="I263" t="n">
         <v>7</v>
@@ -19662,10 +19154,8 @@
           <t>4960013614</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:03:44</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44398.79425925926</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19737,10 +19227,8 @@
           <t>4960012902</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:03:27</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44398.7940625</v>
       </c>
       <c r="I265" t="n">
         <v>9</v>
@@ -19804,10 +19292,8 @@
           <t>4960007419</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:03:19</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44398.7939699074</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19867,10 +19353,8 @@
           <t>4960016607</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:03:07</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44398.79383101852</v>
       </c>
       <c r="I267" t="n">
         <v>4</v>
@@ -19946,10 +19430,8 @@
           <t>4960010779</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:02:38</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44398.79349537037</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -20017,10 +19499,8 @@
           <t>4959904277</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:02:28</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44398.79337962963</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20088,10 +19568,8 @@
           <t>4960004792</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:02:25</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44398.7933449074</v>
       </c>
       <c r="I270" t="n">
         <v>34</v>
@@ -20155,10 +19633,8 @@
           <t>4959904277</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:02:09</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44398.79315972222</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20222,10 +19698,8 @@
           <t>4959993854</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:01:47</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44398.7929050926</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20297,10 +19771,8 @@
           <t>4959939986</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:01:30</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44398.79270833333</v>
       </c>
       <c r="I273" t="n">
         <v>2</v>
@@ -20368,10 +19840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:01:26</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44398.79266203703</v>
       </c>
       <c r="I274" t="n">
         <v>24</v>
@@ -20448,10 +19918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:00:54</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44398.79229166666</v>
       </c>
       <c r="I275" t="n">
         <v>24</v>
@@ -20524,10 +19992,8 @@
           <t>4959995687</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:00:39</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44398.79211805556</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20603,10 +20069,8 @@
           <t>4959995233</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:00:29</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44398.79200231482</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20682,10 +20146,8 @@
           <t>4959989346</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:00:24</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44398.79194444444</v>
       </c>
       <c r="I278" t="n">
         <v>4</v>
@@ -20757,10 +20219,8 @@
           <t>4959989040</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:00:18</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44398.791875</v>
       </c>
       <c r="I279" t="n">
         <v>2</v>
@@ -20837,10 +20297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:00:16</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44398.79185185185</v>
       </c>
       <c r="I280" t="n">
         <v>7</v>
@@ -20908,10 +20366,8 @@
           <t>4959845910</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:00:11</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44398.79179398148</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20983,10 +20439,8 @@
           <t>4959982265</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:59:20</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44398.7912037037</v>
       </c>
       <c r="I282" t="n">
         <v>7</v>
@@ -21050,10 +20504,8 @@
           <t>4959978136</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:59:20</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44398.7912037037</v>
       </c>
       <c r="I283" t="n">
         <v>18</v>
@@ -21121,10 +20573,8 @@
           <t>4959857678</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:59:18</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44398.79118055556</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21192,10 +20642,8 @@
           <t>4959962237</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:59:06</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44398.79104166666</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21267,10 +20715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:58:59</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44398.79096064815</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21342,10 +20788,8 @@
           <t>4959898312</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:58:53</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44398.7908912037</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21409,10 +20853,8 @@
           <t>4959883081</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:58:49</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44398.79084490741</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21488,10 +20930,8 @@
           <t>4959980605</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:58:42</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44398.79076388889</v>
       </c>
       <c r="I289" t="n">
         <v>2</v>
@@ -21567,10 +21007,8 @@
           <t>4959974179</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:58:26</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44398.7905787037</v>
       </c>
       <c r="I290" t="n">
         <v>2</v>
@@ -21646,10 +21084,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:58:19</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44398.79049768519</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21714,10 +21150,8 @@
           <t>4959969191</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:58:09</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44398.79038194445</v>
       </c>
       <c r="I292" t="n">
         <v>9</v>
@@ -21793,10 +21227,8 @@
           <t>4959973063</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:58:01</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44398.79028935185</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21860,10 +21292,8 @@
           <t>4959943327</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:57:49</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44398.79015046296</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21939,10 +21369,8 @@
           <t>4959913120</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:57:24</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44398.78986111111</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22006,10 +21434,8 @@
           <t>4959971031</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:57:14</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44398.78974537037</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22085,10 +21511,8 @@
           <t>4959898312</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:57:07</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44398.78966435185</v>
       </c>
       <c r="I297" t="n">
         <v>13</v>
@@ -22152,10 +21576,8 @@
           <t>4959874863</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:57:03</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44398.78961805555</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22219,10 +21641,8 @@
           <t>4959962237</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:56:50</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44398.78946759259</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22298,10 +21718,8 @@
           <t>4959904277</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:56:40</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44398.78935185185</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22365,10 +21783,8 @@
           <t>4959958943</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:56:29</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44398.78922453704</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22444,10 +21860,8 @@
           <t>4959898312</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:56:23</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44398.78915509259</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22521,10 +21935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:56:19</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44398.7891087963</v>
       </c>
       <c r="I303" t="n">
         <v>28</v>
@@ -22592,10 +22004,8 @@
           <t>4959845910</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:55:56</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44398.78884259259</v>
       </c>
       <c r="I304" t="n">
         <v>4</v>
@@ -22671,10 +22081,8 @@
           <t>4959857678</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:55:50</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44398.78877314815</v>
       </c>
       <c r="I305" t="n">
         <v>6</v>
@@ -22750,10 +22158,8 @@
           <t>4959915138</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:55:24</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44398.78847222222</v>
       </c>
       <c r="I306" t="n">
         <v>2</v>
@@ -22829,10 +22235,8 @@
           <t>4959955330</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:55:06</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44398.78826388889</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22896,10 +22300,8 @@
           <t>4959898312</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:54:50</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44398.78807870371</v>
       </c>
       <c r="I308" t="n">
         <v>10</v>
@@ -22967,10 +22369,8 @@
           <t>4959939986</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:54:36</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44398.78791666667</v>
       </c>
       <c r="I309" t="n">
         <v>2</v>
@@ -23036,10 +22436,8 @@
           <t>4959939601</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:54:28</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44398.78782407408</v>
       </c>
       <c r="I310" t="n">
         <v>4</v>
@@ -23107,10 +22505,8 @@
           <t>4959943436</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:54:24</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44398.78777777778</v>
       </c>
       <c r="I311" t="n">
         <v>14</v>
@@ -23186,10 +22582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:54:23</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44398.78776620371</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23257,10 +22651,8 @@
           <t>4959943327</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:54:22</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44398.78775462963</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23328,10 +22720,8 @@
           <t>4959943037</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:54:15</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44398.78767361111</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23399,10 +22789,8 @@
           <t>4959938600</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:54:05</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44398.78755787037</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23478,10 +22866,8 @@
           <t>4959938566</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:54:05</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44398.78755787037</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23549,10 +22935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:54:03</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44398.78753472222</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23622,10 +23006,8 @@
           <t>4959938303</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:53:59</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44398.78748842593</v>
       </c>
       <c r="I318" t="n">
         <v>6</v>
@@ -23694,10 +23076,8 @@
           <t>4959814873</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:53:51</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44398.78739583334</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23757,10 +23137,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:53:28</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44398.78712962963</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23837,10 +23215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:53:09</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44398.78690972222</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23904,10 +23280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:53:04</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44398.78685185185</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23979,10 +23353,8 @@
           <t>4959932462</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:52:40</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44398.78657407407</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -24050,10 +23422,8 @@
           <t>4959898312</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:52:38</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44398.78655092593</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24117,10 +23487,8 @@
           <t>4959932218</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:52:33</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44398.78649305556</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24196,10 +23564,8 @@
           <t>4959901549</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:52:33</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44398.78649305556</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24273,10 +23639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:52:20</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44398.78634259259</v>
       </c>
       <c r="I327" t="n">
         <v>35</v>
@@ -24348,10 +23712,8 @@
           <t>4959874863</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:52:14</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44398.78627314815</v>
       </c>
       <c r="I328" t="n">
         <v>7</v>
@@ -24415,10 +23777,8 @@
           <t>4959913563</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:52:10</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44398.78622685185</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24486,10 +23846,8 @@
           <t>4959931057</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:52:03</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44398.78614583334</v>
       </c>
       <c r="I330" t="n">
         <v>22</v>
@@ -24557,10 +23915,8 @@
           <t>4959736112</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:51:32</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44398.78578703704</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24624,10 +23980,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:50:52</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44398.78532407407</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24699,10 +24053,8 @@
           <t>4959913563</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:50:38</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44398.78516203703</v>
       </c>
       <c r="I333" t="n">
         <v>3</v>
@@ -24766,10 +24118,8 @@
           <t>4959913553</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:50:37</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44398.78515046297</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24837,10 +24187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:50:35</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44398.78512731481</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24904,10 +24252,8 @@
           <t>4959913120</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:50:27</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44398.78503472222</v>
       </c>
       <c r="I336" t="n">
         <v>11</v>
@@ -24980,10 +24326,8 @@
           <t>4959904277</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:49:46</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44398.78456018519</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25051,10 +24395,8 @@
           <t>4959911308</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:49:45</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44398.78454861111</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -25122,10 +24464,8 @@
           <t>4959915138</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:49:30</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44398.784375</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25201,10 +24541,8 @@
           <t>4959904529</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:49:06</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44398.78409722223</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25272,10 +24610,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:49:00</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44398.78402777778</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25352,10 +24688,8 @@
           <t>4959904277</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:49:00</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44398.78402777778</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25424,10 +24758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:48:42</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44398.78381944444</v>
       </c>
       <c r="I343" t="n">
         <v>176</v>
@@ -25491,10 +24823,8 @@
           <t>4959898312</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:48:42</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44398.78381944444</v>
       </c>
       <c r="I344" t="n">
         <v>89</v>
@@ -25558,10 +24888,8 @@
           <t>4959857678</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:48:36</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44398.78375</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25629,10 +24957,8 @@
           <t>4959902149</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:48:11</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44398.78346064815</v>
       </c>
       <c r="I346" t="n">
         <v>10</v>
@@ -25704,10 +25030,8 @@
           <t>4959901549</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:47:58</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44398.78331018519</v>
       </c>
       <c r="I347" t="n">
         <v>4</v>
@@ -25775,10 +25099,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:47:10</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44398.78275462963</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25842,10 +25164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:46:52</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44398.78254629629</v>
       </c>
       <c r="I349" t="n">
         <v>3</v>
@@ -25921,10 +25241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:46:52</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44398.78254629629</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -25992,10 +25310,8 @@
           <t>4959887769</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:46:31</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44398.78230324074</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26068,10 +25384,8 @@
           <t>4959883081</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:46:29</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44398.78228009259</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26140,10 +25454,8 @@
           <t>4959839163</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:46:23</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44398.78221064815</v>
       </c>
       <c r="I353" t="n">
         <v>6</v>
@@ -26212,10 +25524,8 @@
           <t>4959814873</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:45:49</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44398.78181712963</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26279,10 +25589,8 @@
           <t>4959839163</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:45:29</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44398.78158564815</v>
       </c>
       <c r="I355" t="n">
         <v>3</v>
@@ -26350,10 +25658,8 @@
           <t>4959839163</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:45:27</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44398.7815625</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26425,10 +25731,8 @@
           <t>4959874863</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:45:26</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44398.78155092592</v>
       </c>
       <c r="I357" t="n">
         <v>65</v>
@@ -26500,10 +25804,8 @@
           <t>4959839163</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:45:22</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44398.78150462963</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26571,10 +25873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:45:08</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44398.78134259259</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26646,10 +25946,8 @@
           <t>4959869855</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:45:02</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44398.78127314815</v>
       </c>
       <c r="I360" t="n">
         <v>72</v>
@@ -26713,10 +26011,8 @@
           <t>4959864615</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:44:58</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44398.78122685185</v>
       </c>
       <c r="I361" t="n">
         <v>4</v>
@@ -26792,10 +26088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:44:46</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44398.78108796296</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26884,10 +26178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:44:43</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44398.78105324074</v>
       </c>
       <c r="I363" t="n">
         <v>2</v>
@@ -26955,10 +26247,8 @@
           <t>4959864042</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:44:43</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44398.78105324074</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27036,10 +26326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:43:54</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44398.78048611111</v>
       </c>
       <c r="I365" t="n">
         <v>325</v>
@@ -27103,10 +26391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:43:42</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44398.78034722222</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27174,10 +26460,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:43:12</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44398.78</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27254,10 +26538,8 @@
           <t>4959839163</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:42:49</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44398.7797337963</v>
       </c>
       <c r="I368" t="n">
         <v>2</v>
@@ -27321,10 +26603,8 @@
           <t>4959857678</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:42:40</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44398.77962962963</v>
       </c>
       <c r="I369" t="n">
         <v>19</v>
@@ -27400,10 +26680,8 @@
           <t>4959839163</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:42:30</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44398.77951388889</v>
       </c>
       <c r="I370" t="n">
         <v>2</v>
@@ -27467,10 +26745,8 @@
           <t>4959814873</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:42:22</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44398.7794212963</v>
       </c>
       <c r="I371" t="n">
         <v>6</v>
@@ -27546,10 +26822,8 @@
           <t>4959852734</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:42:14</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44398.77932870371</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27621,10 +26895,8 @@
           <t>4959852611</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:42:12</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44398.77930555555</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27696,10 +26968,8 @@
           <t>4959839163</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:41:57</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44398.77913194444</v>
       </c>
       <c r="I374" t="n">
         <v>12</v>
@@ -27767,10 +27037,8 @@
           <t>4959855746</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:41:56</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44398.77912037037</v>
       </c>
       <c r="I375" t="n">
         <v>2</v>
@@ -27843,10 +27111,8 @@
           <t>4959839163</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:41:40</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44398.77893518518</v>
       </c>
       <c r="I376" t="n">
         <v>9</v>
@@ -27918,10 +27184,8 @@
           <t>4959814873</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:41:27</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44398.77878472222</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27989,10 +27253,8 @@
           <t>4959845910</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:41:12</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44398.77861111111</v>
       </c>
       <c r="I378" t="n">
         <v>4</v>
@@ -28064,10 +27326,8 @@
           <t>4959839163</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:40:52</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44398.77837962963</v>
       </c>
       <c r="I379" t="n">
         <v>11</v>
@@ -28136,10 +27396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:40:38</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44398.77821759259</v>
       </c>
       <c r="I380" t="n">
         <v>9</v>
@@ -28203,10 +27461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:40:30</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44398.778125</v>
       </c>
       <c r="I381" t="n">
         <v>69</v>
@@ -28274,10 +27530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:40:04</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44398.77782407407</v>
       </c>
       <c r="I382" t="n">
         <v>3</v>
@@ -28341,10 +27595,8 @@
           <t>4959840829</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:40:03</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44398.7778125</v>
       </c>
       <c r="I383" t="n">
         <v>4</v>
@@ -28404,10 +27656,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:40:01</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44398.77778935185</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28471,10 +27721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:39:54</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44398.77770833333</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28542,10 +27790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:39:31</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44398.77744212963</v>
       </c>
       <c r="I386" t="n">
         <v>11</v>
@@ -28621,10 +27867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:39:14</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44398.77724537037</v>
       </c>
       <c r="I387" t="n">
         <v>6</v>
@@ -28688,10 +27932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:39:10</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44398.77719907407</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28759,10 +28001,8 @@
           <t>4959823954</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:38:51</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44398.77697916667</v>
       </c>
       <c r="I389" t="n">
         <v>6</v>
@@ -28822,10 +28062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:38:48</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44398.77694444444</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28897,10 +28135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:38:15</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44398.7765625</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28968,10 +28204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:38:05</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44398.77644675926</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29039,10 +28273,8 @@
           <t>4959825054</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:37:50</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44398.77627314815</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29118,10 +28350,8 @@
           <t>4959814873</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:37:46</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44398.77622685185</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29181,10 +28411,8 @@
           <t>4959817785</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:37:39</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44398.77614583333</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29252,10 +28480,8 @@
           <t>4959813010</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:37:03</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44398.77572916666</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29336,10 +28562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:36:49</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44398.77556712963</v>
       </c>
       <c r="I397" t="n">
         <v>10</v>
@@ -29415,10 +28639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:36:19</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44398.77521990741</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29494,10 +28716,8 @@
           <t>4959799854</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:35:51</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44398.77489583333</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29565,10 +28785,8 @@
           <t>4959792348</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:35:49</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44398.77487268519</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29640,10 +28858,8 @@
           <t>4959805756</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:35:39</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44398.77475694445</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -29708,10 +28924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:35:18</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44398.77451388889</v>
       </c>
       <c r="I402" t="n">
         <v>100</v>
@@ -29775,10 +28989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:35:17</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44398.77450231482</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29854,10 +29066,8 @@
           <t>4959797777</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:35:05</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44398.77436342592</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29921,10 +29131,8 @@
           <t>4959797412</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:34:57</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44398.77427083333</v>
       </c>
       <c r="I405" t="n">
         <v>37</v>
@@ -29988,10 +29196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:34:52</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44398.77421296296</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -30055,10 +29261,8 @@
           <t>4959792348</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:34:42</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44398.77409722222</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30126,10 +29330,8 @@
           <t>4959800886</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:34:40</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44398.77407407408</v>
       </c>
       <c r="I408" t="n">
         <v>3</v>
@@ -30206,10 +29408,8 @@
           <t>4959792348</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:34:19</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44398.77383101852</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30285,10 +29485,8 @@
           <t>4959736410</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:34:06</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44398.77368055555</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30360,10 +29558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:34:00</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44398.77361111111</v>
       </c>
       <c r="I411" t="n">
         <v>6</v>
@@ -30439,10 +29635,8 @@
           <t>4959789882</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:33:59</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44398.77359953704</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30518,10 +29712,8 @@
           <t>4959791144</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:33:51</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44398.77350694445</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30593,10 +29785,8 @@
           <t>4959788848</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:33:36</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44398.77333333333</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30660,10 +29850,8 @@
           <t>4959788765</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:33:34</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44398.77331018518</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30739,10 +29927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:33:29</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44398.77325231482</v>
       </c>
       <c r="I416" t="n">
         <v>171</v>
@@ -30810,10 +29996,8 @@
           <t>4959787863</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:33:14</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44398.77307870371</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30890,10 +30074,8 @@
           <t>4959763733</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:33:08</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44398.77300925926</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30958,10 +30140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:32:56</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44398.77287037037</v>
       </c>
       <c r="I419" t="n">
         <v>558</v>
@@ -31029,10 +30209,8 @@
           <t>4959786544</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:32:43</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44398.77271990741</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31104,10 +30282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:32:32</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44398.77259259259</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31171,10 +30347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:32:16</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44398.77240740741</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31238,10 +30412,8 @@
           <t>4959785164</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:32:12</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44398.77236111111</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31305,10 +30477,8 @@
           <t>4959763733</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:30:57</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44398.77149305555</v>
       </c>
       <c r="I424" t="n">
         <v>4</v>
@@ -31384,10 +30554,8 @@
           <t>4959767230</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:30:54</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44398.77145833334</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31459,10 +30627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:30:46</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44398.77136574074</v>
       </c>
       <c r="I426" t="n">
         <v>2</v>
@@ -31530,10 +30696,8 @@
           <t>4959763140</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:30:43</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44398.77133101852</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -31609,10 +30773,8 @@
           <t>4959736410</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:30:40</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44398.7712962963</v>
       </c>
       <c r="I428" t="n">
         <v>1</v>
@@ -31684,10 +30846,8 @@
           <t>4959765952</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:30:21</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44398.77107638889</v>
       </c>
       <c r="I429" t="n">
         <v>2</v>
@@ -31763,10 +30923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:30:20</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44398.77106481481</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31830,10 +30988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:30:18</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44398.77104166667</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31909,10 +31065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:30:10</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44398.77094907407</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31976,10 +31130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:30:02</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44398.77085648148</v>
       </c>
       <c r="I433" t="n">
         <v>3</v>
@@ -32051,10 +31203,8 @@
           <t>4959759011</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:29:49</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44398.77070601852</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32122,10 +31272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:29:37</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44398.77056712963</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32193,10 +31341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:29:37</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44398.77056712963</v>
       </c>
       <c r="I436" t="n">
         <v>81</v>
@@ -32272,10 +31418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:29:36</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44398.77055555556</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32351,10 +31495,8 @@
           <t>4959760090</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:29:32</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44398.77050925926</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32422,10 +31564,8 @@
           <t>4959758146</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:29:30</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44398.77048611111</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32493,10 +31633,8 @@
           <t>4959753461</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:29:16</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44398.77032407407</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32560,10 +31698,8 @@
           <t>4959736410</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:28:56</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44398.77009259259</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32639,10 +31775,8 @@
           <t>4959747997</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:28:42</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44398.76993055556</v>
       </c>
       <c r="I442" t="n">
         <v>1</v>
@@ -32718,10 +31852,8 @@
           <t>4959748008</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:28:42</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44398.76993055556</v>
       </c>
       <c r="I443" t="n">
         <v>2</v>
@@ -32797,10 +31929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:28:33</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44398.76982638889</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32872,10 +32002,8 @@
           <t>4959736410</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:28:12</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44398.76958333333</v>
       </c>
       <c r="I445" t="n">
         <v>5</v>
@@ -32947,10 +32075,8 @@
           <t>4959746652</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:28:11</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44398.76957175926</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33018,10 +32144,8 @@
           <t>4959736410</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:28:06</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44398.76951388889</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33094,10 +32218,8 @@
           <t>4959746447</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:28:05</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44398.76950231481</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33173,10 +32295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:27:35</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44398.7691550926</v>
       </c>
       <c r="I449" t="n">
         <v>944</v>
@@ -33244,10 +32364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:27:15</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44398.76892361111</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33311,10 +32429,8 @@
           <t>4959736410</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:27:12</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44398.76888888889</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33386,10 +32502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:27:04</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44398.7687962963</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33461,10 +32575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:27:03</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44398.76878472222</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33536,10 +32648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:26:54</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44398.76868055556</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33607,10 +32717,8 @@
           <t>4959709031</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:26:29</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44398.7683912037</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33682,10 +32790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:26:22</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44398.76831018519</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33757,10 +32863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:26:14</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44398.76821759259</v>
       </c>
       <c r="I457" t="n">
         <v>6</v>
@@ -33828,10 +32932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:26:09</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44398.76815972223</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33891,10 +32993,8 @@
           <t>4959736410</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:26:08</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44398.76814814815</v>
       </c>
       <c r="I459" t="n">
         <v>9</v>
@@ -33966,10 +33066,8 @@
           <t>4959736112</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:26:02</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44398.7680787037</v>
       </c>
       <c r="I460" t="n">
         <v>3</v>
@@ -34037,10 +33135,8 @@
           <t>4959736008</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:26:00</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44398.76805555556</v>
       </c>
       <c r="I461" t="n">
         <v>2</v>
@@ -34116,10 +33212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:25:50</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44398.76793981482</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34196,10 +33290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:25:39</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44398.7678125</v>
       </c>
       <c r="I463" t="n">
         <v>188</v>
@@ -34267,10 +33359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:25:28</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44398.76768518519</v>
       </c>
       <c r="I464" t="n">
         <v>32</v>
@@ -34334,10 +33424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:25:02</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44398.76738425926</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34409,10 +33497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:24:43</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44398.76716435186</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34480,10 +33566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:23:51</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44398.7665625</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34543,10 +33627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:23:48</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44398.76652777778</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34610,10 +33692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:23:41</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44398.76644675926</v>
       </c>
       <c r="I469" t="n">
         <v>67</v>
@@ -34681,10 +33761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:23:39</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44398.76642361111</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34752,10 +33830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:23:39</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44398.76642361111</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34831,10 +33907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:23:35</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44398.76637731482</v>
       </c>
       <c r="I472" t="n">
         <v>306</v>
@@ -34898,10 +33972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:23:23</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44398.76623842592</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34969,10 +34041,8 @@
           <t>4959709031</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:23:12</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44398.76611111111</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35044,10 +34114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:23:11</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44398.76609953704</v>
       </c>
       <c r="I475" t="n">
         <v>7</v>
@@ -35111,10 +34179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:23:06</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44398.76604166667</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35178,10 +34244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:22:32</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44398.76564814815</v>
       </c>
       <c r="I477" t="n">
         <v>8</v>
@@ -35257,10 +34321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:22:27</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44398.76559027778</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35328,10 +34390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:22:14</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44398.76543981482</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35408,10 +34468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:21:54</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44398.76520833333</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35489,10 +34547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:21:53</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44398.76519675926</v>
       </c>
       <c r="I481" t="n">
         <v>3</v>
@@ -35564,10 +34620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:21:50</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44398.76516203704</v>
       </c>
       <c r="I482" t="n">
         <v>31</v>
@@ -35636,10 +34690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:21:43</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44398.76508101852</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35707,10 +34759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:21:37</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44398.76501157408</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35786,10 +34836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:21:28</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44398.76490740741</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35857,10 +34905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:21:21</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44398.76482638889</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35936,10 +34982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-21 18:21:15</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44398.76475694445</v>
       </c>
       <c r="I487" t="n">
         <v>153</v>
